--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,10 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>13.37459845202289</v>
+        <v>0.7421941107060001</v>
       </c>
       <c r="R2">
-        <v>120.371386068206</v>
+        <v>6.679746996354</v>
       </c>
       <c r="S2">
-        <v>0.5343783221934635</v>
+        <v>0.0317064942573792</v>
       </c>
       <c r="T2">
-        <v>0.5343783221934635</v>
+        <v>0.03170649425737919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>4.973602643854</v>
+        <v>0.281551628196</v>
       </c>
       <c r="R3">
-        <v>44.762423794686</v>
+        <v>2.533964653764</v>
       </c>
       <c r="S3">
-        <v>0.1987188957944146</v>
+        <v>0.01202787108356406</v>
       </c>
       <c r="T3">
-        <v>0.1987188957944146</v>
+        <v>0.01202787108356405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.05439313079922223</v>
+        <v>0.003079151198</v>
       </c>
       <c r="R4">
-        <v>0.4895381771930001</v>
+        <v>0.027712360782</v>
       </c>
       <c r="S4">
-        <v>0.002173262253786895</v>
+        <v>0.0001315411808968967</v>
       </c>
       <c r="T4">
-        <v>0.002173262253786895</v>
+        <v>0.0001315411808968966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H5">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>3.463322553191222</v>
+        <v>0.05406424566800001</v>
       </c>
       <c r="R5">
-        <v>31.169902978721</v>
+        <v>0.486578211012</v>
       </c>
       <c r="S5">
-        <v>0.1383760792391631</v>
+        <v>0.002309621795801354</v>
       </c>
       <c r="T5">
-        <v>0.1383760792391631</v>
+        <v>0.002309621795801353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H6">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I6">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J6">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,36 +812,36 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.09457947930455557</v>
+        <v>0.005354067926000001</v>
       </c>
       <c r="R6">
-        <v>0.851215313741</v>
+        <v>0.04818661133400001</v>
       </c>
       <c r="S6">
-        <v>0.00377889651386547</v>
+        <v>0.0002287255065765168</v>
       </c>
       <c r="T6">
-        <v>0.00377889651386547</v>
+        <v>0.0002287255065765166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +856,40 @@
         <v>6.090071</v>
       </c>
       <c r="I7">
-        <v>0.8776223887075381</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J7">
-        <v>0.8776223887075382</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.004928897462666667</v>
+        <v>13.11084086038567</v>
       </c>
       <c r="R7">
-        <v>0.04436007716400001</v>
+        <v>117.997567743471</v>
       </c>
       <c r="S7">
-        <v>0.0001969327128445535</v>
+        <v>0.5600944476018599</v>
       </c>
       <c r="T7">
-        <v>0.0001969327128445535</v>
+        <v>0.5600944476018598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H8">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>1.864983655402</v>
+        <v>4.973602643854</v>
       </c>
       <c r="R8">
-        <v>16.784852898618</v>
+        <v>44.762423794686</v>
       </c>
       <c r="S8">
-        <v>0.07451489779427493</v>
+        <v>0.2124720492807975</v>
       </c>
       <c r="T8">
-        <v>0.07451489779427492</v>
+        <v>0.2124720492807974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H9">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>0.6935301775620001</v>
+        <v>0.05439313079922222</v>
       </c>
       <c r="R9">
-        <v>6.241771598058</v>
+        <v>0.489538177193</v>
       </c>
       <c r="S9">
-        <v>0.02770980332647389</v>
+        <v>0.002323671751701051</v>
       </c>
       <c r="T9">
-        <v>0.02770980332647389</v>
+        <v>0.002323671751701051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H10">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.007584698731000002</v>
+        <v>0.9550435808708889</v>
       </c>
       <c r="R10">
-        <v>0.06826228857900001</v>
+        <v>8.595392227837999</v>
       </c>
       <c r="S10">
-        <v>0.0003030445061026597</v>
+        <v>0.04079941268144168</v>
       </c>
       <c r="T10">
-        <v>0.0003030445061026597</v>
+        <v>0.04079941268144167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H11">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>0.4829333739070001</v>
+        <v>0.09457947930455557</v>
       </c>
       <c r="R11">
-        <v>4.346400365163</v>
+        <v>0.851215313741</v>
       </c>
       <c r="S11">
-        <v>0.01929546722508283</v>
+        <v>0.004040430494097106</v>
       </c>
       <c r="T11">
-        <v>0.01929546722508283</v>
+        <v>0.004040430494097105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.283071</v>
+        <v>0.3315123333333334</v>
       </c>
       <c r="H12">
-        <v>0.849213</v>
+        <v>0.994537</v>
       </c>
       <c r="I12">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="J12">
-        <v>0.1223776112924619</v>
+        <v>0.133865734365885</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.013188372247</v>
+        <v>2.141061464926334</v>
       </c>
       <c r="R12">
-        <v>0.118695350223</v>
+        <v>19.269553184337</v>
       </c>
       <c r="S12">
-        <v>0.000526937706511014</v>
+        <v>0.09146603572185136</v>
       </c>
       <c r="T12">
-        <v>0.000526937706511014</v>
+        <v>0.09146603572185132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.994537</v>
+      </c>
+      <c r="I13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.450022</v>
+      </c>
+      <c r="N13">
+        <v>7.350066</v>
+      </c>
+      <c r="O13">
+        <v>0.2591975970376838</v>
+      </c>
+      <c r="P13">
+        <v>0.2591975970376837</v>
+      </c>
+      <c r="Q13">
+        <v>0.8122125099380001</v>
+      </c>
+      <c r="R13">
+        <v>7.309912589442</v>
+      </c>
+      <c r="S13">
+        <v>0.03469767667332228</v>
+      </c>
+      <c r="T13">
+        <v>0.03469767667332226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.283071</v>
-      </c>
-      <c r="H13">
-        <v>0.849213</v>
-      </c>
-      <c r="I13">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J13">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.994537</v>
+      </c>
+      <c r="I14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.002428</v>
-      </c>
-      <c r="N13">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P13">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q13">
-        <v>0.0006872963880000001</v>
-      </c>
-      <c r="R13">
-        <v>0.006185667492</v>
-      </c>
-      <c r="S13">
-        <v>2.746073401654296E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.746073401654296E-05</v>
+      <c r="M14">
+        <v>0.02679433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.080383</v>
+      </c>
+      <c r="O14">
+        <v>0.00283467936786964</v>
+      </c>
+      <c r="P14">
+        <v>0.002834679367869639</v>
+      </c>
+      <c r="Q14">
+        <v>0.008882651963444444</v>
+      </c>
+      <c r="R14">
+        <v>0.07994386767099999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003794664352716921</v>
+      </c>
+      <c r="T14">
+        <v>0.0003794664352716919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.994537</v>
+      </c>
+      <c r="I15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4704593333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.411378</v>
+      </c>
+      <c r="O15">
+        <v>0.04977176886736147</v>
+      </c>
+      <c r="P15">
+        <v>0.04977176886736145</v>
+      </c>
+      <c r="Q15">
+        <v>0.1559630713317778</v>
+      </c>
+      <c r="R15">
+        <v>1.403667641986</v>
+      </c>
+      <c r="S15">
+        <v>0.006662734390118435</v>
+      </c>
+      <c r="T15">
+        <v>0.006662734390118432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.994537</v>
+      </c>
+      <c r="I16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04659033333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.139771</v>
+      </c>
+      <c r="O16">
+        <v>0.004928977145994893</v>
+      </c>
+      <c r="P16">
+        <v>0.004928977145994892</v>
+      </c>
+      <c r="Q16">
+        <v>0.01544527011411111</v>
+      </c>
+      <c r="R16">
+        <v>0.139007431027</v>
+      </c>
+      <c r="S16">
+        <v>0.0006598211453212704</v>
+      </c>
+      <c r="T16">
+        <v>0.00065982114532127</v>
       </c>
     </row>
   </sheetData>
